--- a/biology/Botanique/Glaïeul/Glaïeul.xlsx
+++ b/biology/Botanique/Glaïeul/Glaïeul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gla%C3%AFeul</t>
+          <t>Glaïeul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gladiolus
 Les Glaïeuls (Gladiolus) sont un genre de plantes de la famille des Iridacées qui compte plus de 260 espèces. 
-Ce sont des plantes vivaces à cormes qui sont maintenant largement utilisées comme plantes ornementales en massifs ou pour la production de fleurs coupées[1].
+Ce sont des plantes vivaces à cormes qui sont maintenant largement utilisées comme plantes ornementales en massifs ou pour la production de fleurs coupées.
 Le nom glaïeul dérive du latin gladius, signifiant « glaive ». Gladiolus, qui signifie « petit glaive » en latin, fait référence à la forme des feuilles. Ces dernières sont surmontées par une inflorescence en épi.
-Suivant les espèces, la taille de la plante est variable[2].
+Suivant les espèces, la taille de la plante est variable.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gla%C3%AFeul</t>
+          <t>Glaïeul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Usages alimentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009), le rhizome de Gladiolus atroviolaceus (trouvé en Grèce et en Turquie) est encore consommé en Anatolie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009), le rhizome de Gladiolus atroviolaceus (trouvé en Grèce et en Turquie) est encore consommé en Anatolie.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gla%C3%AFeul</t>
+          <t>Glaïeul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Répartition dans le monde</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La plupart des espèces sont originaires d'Afrique du Sud, mais on trouve aussi certaines espèces à l'état sauvage en Eurasie, autour du bassin méditerranéen et en Afrique de l'Est[4]. On compte environ 10 espèces en Eurasie contre 150 en Afrique du Sud et 76 en Afrique tropicale. Ce sont donc des plantes très hémérochores[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces sont originaires d'Afrique du Sud, mais on trouve aussi certaines espèces à l'état sauvage en Eurasie, autour du bassin méditerranéen et en Afrique de l'Est. On compte environ 10 espèces en Eurasie contre 150 en Afrique du Sud et 76 en Afrique tropicale. Ce sont donc des plantes très hémérochores.
 			Glaïeul commun
 			Glaïeul de Byzance
 			Glaïeul d'Illyrie
@@ -558,20 +574,89 @@
 			Cormes de glaïeuls en France
 			Un corme de glaïeul
 			Racines d'un corme de glaïeul.
-En France
-Il fait partie des plantes dont la culture est recommandée dans les jardins du domaine royal par le capitulaire De Villis, un acte législatif émis par Charlemagne vers la fin du VIIIe siècle ou au début du IXe siècle[6].En France, on peut rencontrer les espèces suivantes[7],[8] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glaïeul</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gla%C3%AFeul</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Répartition dans le monde</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il fait partie des plantes dont la culture est recommandée dans les jardins du domaine royal par le capitulaire De Villis, un acte législatif émis par Charlemagne vers la fin du VIIIe siècle ou au début du IXe siècle.En France, on peut rencontrer les espèces suivantes, :
 Gladiolus communis (en) L. - glaïeul commun
-Gladiolus × byzantinus Mill. (Syn. Gladiolus × bornetii Ardoino) - glaïeul de Byzance. Ce glaïeul, appelé aussi G. communis subsp. byzantinus, est selon la Kew World Checklist un hybride Gladiolus dubius × Gladiolus italicus[9],[10]
+Gladiolus × byzantinus Mill. (Syn. Gladiolus × bornetii Ardoino) - glaïeul de Byzance. Ce glaïeul, appelé aussi G. communis subsp. byzantinus, est selon la Kew World Checklist un hybride Gladiolus dubius × Gladiolus italicus,
 Gladiolus dubius Guss. - glaïeul douteux
-Gladiolus gallaecicus Pau ex J.M. Tison &amp; Ch. Girod (Syn. Gladiolus illyricus auct.gall., non Gladiolus illyricus W.D.J.Koch. - les plantes françaises et espagnoles ayant improprement été rapportées à cette espèce d'Europe orientale)[7],[8].
-Gladiolus imbricatus L. - glaïeul imbriqué - les populations françaises rapportées à ce taxon sont en réalité d'origine hybride[11].
-Gladiolus italicus Mill. - glaïeul des moissons ou glaïeul d'Italie[12]
+Gladiolus gallaecicus Pau ex J.M. Tison &amp; Ch. Girod (Syn. Gladiolus illyricus auct.gall., non Gladiolus illyricus W.D.J.Koch. - les plantes françaises et espagnoles ayant improprement été rapportées à cette espèce d'Europe orientale),.
+Gladiolus imbricatus L. - glaïeul imbriqué - les populations françaises rapportées à ce taxon sont en réalité d'origine hybride.
+Gladiolus italicus Mill. - glaïeul des moissons ou glaïeul d'Italie
 Gladiolus palustris Gaudin - glaïeul des marais
 Autres espèces :
 Gladiolus murielae (= Gladiolus callianthus, = Acidanthera bicolor)  - glaïeul d'Abyssinie
-Gladiolus actinomorphanthus P.A.Duvign. &amp; Van Bockstal
-En République Démocratique du Congo
-La composition spécifique des sols du Katanga et en particulier leur richesse en cuivre et autres minéraux variés procurent aux glaïeuls locaux leurs spécificités décrites entre autres par Paul Duvigneaud et Liliane Van Bockstal au début des années 1960[13].
+Gladiolus actinomorphanthus P.A.Duvign. &amp; Van Bockstal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glaïeul</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gla%C3%AFeul</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition dans le monde</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En République Démocratique du Congo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La composition spécifique des sols du Katanga et en particulier leur richesse en cuivre et autres minéraux variés procurent aux glaïeuls locaux leurs spécificités décrites entre autres par Paul Duvigneaud et Liliane Van Bockstal au début des années 1960.
 Gladiolus actinomorphanthus P.A.Duvign. &amp; Van Bockstal
 Gladiolus curtilimbus P.A.Duvign. &amp; Van Bockstal ex S.Córdova
 Gladiolus ledoctei P.A.Duvign. &amp; Van Bockstal
@@ -589,33 +674,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gla%C3%AFeul</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glaïeul</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gla%C3%AFeul</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, le glaïeul symbolise le rendez-vous ou l'indifférence[14].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, le glaïeul symbolise le rendez-vous ou l'indifférence.
 </t>
         </is>
       </c>
